--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\AngVel\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79BE183-F42B-4ED0-B39E-C533FC8C1573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40299C8-F5C7-4D7D-B75C-F67C12FBA827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{943AB7FC-5198-4B86-A4E1-7DF13A4CFDE2}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{D1EAA393-5BA5-4B3C-871F-645BD29153FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711B7A31-357C-457D-9B84-FC33C9D3BA7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592B8714-C615-42E3-8F31-B4F5AD958264}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\AngVel\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40299C8-F5C7-4D7D-B75C-F67C12FBA827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128138F8-257D-43FB-AFE6-09B315560053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{D1EAA393-5BA5-4B3C-871F-645BD29153FB}"/>
+    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{B78D4943-8BE1-4366-8F98-93822D578BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,16 +401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592B8714-C615-42E3-8F31-B4F5AD958264}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FE5BE4-B24A-45AC-B922-9D986B4C8220}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.11206876483416074</v>
+        <v>0.40818309894173571</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\AngVel\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128138F8-257D-43FB-AFE6-09B315560053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3861B66C-5CC2-42EB-8570-F8E5C566A5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{B78D4943-8BE1-4366-8F98-93822D578BD2}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{43988561-B434-4872-9A84-98E0C74E25AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,14 +401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FE5BE4-B24A-45AC-B922-9D986B4C8220}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DF442C-F122-4D6E-A167-96261E99F3F5}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0.40818309894173571</v>
       </c>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\AngVel\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3861B66C-5CC2-42EB-8570-F8E5C566A5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DAEAD8-564E-4F2D-A5A7-F3A0D3122A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{43988561-B434-4872-9A84-98E0C74E25AB}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{9F941F46-3C4D-4C1E-A41F-878350053511}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DF442C-F122-4D6E-A167-96261E99F3F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00166BD-EDE2-4C6B-B928-D73A40A4FB49}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.40818309894173571</v>
+        <v>6.2159514316802174E-2</v>
       </c>
     </row>
   </sheetData>
